--- a/misc/exer_aula_4.xlsx
+++ b/misc/exer_aula_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Anova" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
   <si>
     <t>repetições, sendo que os blocos controlaram diferenças de fatores ambientais.</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Conclusão</t>
   </si>
   <si>
-    <t>q ( 6 X 15) = 4.6</t>
-  </si>
-  <si>
     <t>a) Ordenar as médias de maneira de cresecente</t>
   </si>
   <si>
@@ -303,13 +300,283 @@
   </si>
   <si>
     <t>b) Testemunha vs demais adubos nitrogenados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejeitamos H0 ao nível de </t>
+  </si>
+  <si>
+    <t>1% de significância, e concluímos que</t>
+  </si>
+  <si>
+    <t>produção do abacaizeiro.</t>
+  </si>
+  <si>
+    <t>a adubação nitrogenada causa efeito na</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0 ao nível de 5% de probabilidade</t>
+  </si>
+  <si>
+    <t>concluímos que os blocos foram eficientes em</t>
+  </si>
+  <si>
+    <t>controlar a heterogeneidade do local.</t>
+  </si>
+  <si>
+    <t>Rejeitamos H0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concluímos que o grupo Salitre </t>
+  </si>
+  <si>
+    <t>difere do grupo Nitrocálcio a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> esse nível de probabilidade,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sendo o grupo Nitrocálcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> o mais recomendado pois apresentou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uma maior produção.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o teste foi não significativo ao nível de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.2"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">de probabilidade. Neste caso, não rejeitamos </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.2"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+  </si>
+  <si>
+    <t>concluímos que a média do tratamento Nitrocálcio</t>
+  </si>
+  <si>
+    <t>não difere da média do tratamento</t>
+  </si>
+  <si>
+    <t>Nitrocálcio + Enxofre a esse nível de probabilidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q ( 6 X 15) = </t>
+  </si>
+  <si>
+    <t>QMres</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Contrastes Testados</t>
+  </si>
+  <si>
+    <t>m5 - m4</t>
+  </si>
+  <si>
+    <t>ns</t>
+  </si>
+  <si>
+    <t>m4 recebe a</t>
+  </si>
+  <si>
+    <t>m6 recebe a</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m5 - m6</t>
+  </si>
+  <si>
+    <t>m5 - m2</t>
+  </si>
+  <si>
+    <t>m2 recebe a</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>m3 recebe b</t>
+  </si>
+  <si>
+    <t>m5 - m3</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m2 - m3</t>
+  </si>
+  <si>
+    <t>m2 não recebe b</t>
+  </si>
+  <si>
+    <t>m3 - m1</t>
+  </si>
+  <si>
+    <t>m1 rebe c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Contraste de 6 médias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m6 recebe a e m1 recebe b</t>
+  </si>
+  <si>
+    <t>Contraste de 5 médias</t>
+  </si>
+  <si>
+    <t>m5 - m1</t>
+  </si>
+  <si>
+    <t>m4 - m1</t>
+  </si>
+  <si>
+    <t>m1 recebe a</t>
+  </si>
+  <si>
+    <t>Contraste de 4 médias</t>
+  </si>
+  <si>
+    <t>m5-m2</t>
+  </si>
+  <si>
+    <t>m4 - m3</t>
+  </si>
+  <si>
+    <t>m6-m1</t>
+  </si>
+  <si>
+    <t>m2 recebe a, consequentemente m6 tmbem recebe a</t>
+  </si>
+  <si>
+    <t>Contraste de 3 médias</t>
+  </si>
+  <si>
+    <t>m6-m3</t>
+  </si>
+  <si>
+    <t>m2-m1</t>
+  </si>
+  <si>
+    <t>não ocorre alteração pois as letras são diferentes e m4 e m3</t>
+  </si>
+  <si>
+    <t>não ocorre alteração pois as letras são diferentes e m6 e m1</t>
+  </si>
+  <si>
+    <t>não ocorre alteração pois as letras são diferentes e m6 e m3</t>
+  </si>
+  <si>
+    <t>não ocorre alteração pois as letras são diferentes e m2 e m1</t>
+  </si>
+  <si>
+    <t>Contraste de 2 médias</t>
+  </si>
+  <si>
+    <t>m1 recebe c</t>
+  </si>
+  <si>
+    <t>Coefs_a</t>
+  </si>
+  <si>
+    <t>Coef_b</t>
+  </si>
+  <si>
+    <t>Coefs_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejeitamos H0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o teste foi significativo ao nível </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de 5% de probabilidade, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicando que devemos rejeitar H0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e conclui que, em média, </t>
+  </si>
+  <si>
+    <t>o grupo dos adubos com nitrocálcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apresenta uma produção </t>
+  </si>
+  <si>
+    <t>superior à média dos demais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adubos nitrogenados.</t>
+  </si>
+  <si>
+    <t>o grupo dos tratamentos com adubo</t>
+  </si>
+  <si>
+    <t>apresenta uma produção superior</t>
+  </si>
+  <si>
+    <t>à testemunha (sem adubo).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +616,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="MathJax_Main"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="MathJax_Math"/>
+    </font>
+    <font>
+      <sz val="7.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Main"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -358,7 +641,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,11 +660,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,6 +794,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +948,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>360589</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180816</xdr:rowOff>
+      <xdr:rowOff>153601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E12"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,6 +1695,35 @@
         <v>28</v>
       </c>
     </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1289,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1308,6 +1751,12 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -1316,6 +1765,12 @@
       <c r="B2">
         <v>21.57</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -1324,6 +1779,12 @@
       <c r="B3">
         <v>27.76</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -1332,6 +1793,12 @@
       <c r="B4">
         <v>24.58</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1340,6 +1807,12 @@
       <c r="B5">
         <v>28.44</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -1348,6 +1821,12 @@
       <c r="B6">
         <v>28.85</v>
       </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -1356,6 +1835,12 @@
       <c r="B7">
         <v>28.3</v>
       </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18">
       <c r="A9" s="4" t="s">
@@ -1377,11 +1862,27 @@
       <c r="C11" t="s">
         <v>38</v>
       </c>
+      <c r="D11">
+        <f>SUMPRODUCT(B2:B7,C2:C7)</f>
+        <v>-7.9900000000000055</v>
+      </c>
+      <c r="F11">
+        <f>SUMPRODUCT(B2:B7,D2:D7)</f>
+        <v>0.55000000000000071</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" t="s">
         <v>39</v>
       </c>
+      <c r="D12">
+        <f>SUMSQ(C2:C7)*Anova!D12/4</f>
+        <v>0.96</v>
+      </c>
+      <c r="F12">
+        <f>SUMSQ(C2:C7)*Anova!D12/4</f>
+        <v>0.96</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18">
       <c r="A13" s="4" t="s">
@@ -1390,51 +1891,130 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
+      <c r="D13">
+        <f>SQRT(D12)</f>
+        <v>0.9797958971132712</v>
+      </c>
+      <c r="F13">
+        <f>SQRT(F12)</f>
+        <v>0.9797958971132712</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
         <v>43</v>
       </c>
+      <c r="D14">
+        <f>D11*D13</f>
+        <v>-7.8285692179350423</v>
+      </c>
+      <c r="F14">
+        <f>F11*F13</f>
+        <v>0.53888774341229984</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
         <v>44</v>
       </c>
+      <c r="D15">
+        <f>_xlfn.T.INV.2T(0.05,Anova!B12)</f>
+        <v>2.1314495455597742</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.T.INV.2T(0.05,Anova!B12)</f>
+        <v>2.1314495455597742</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="18">
+      <c r="D16">
+        <f>_xlfn.T.INV.2T(0.01,Anova!B12)</f>
+        <v>2.9467128834752381</v>
+      </c>
+      <c r="F16">
+        <f>_xlfn.T.INV.2T(0.01,Anova!B12)</f>
+        <v>2.9467128834752381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18">
+    <row r="18" spans="1:7" ht="17.25">
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1443,7 +2023,7 @@
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +2031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +2039,7 @@
         <v>21.57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +2047,7 @@
         <v>27.76</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +2055,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +2063,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +2071,7 @@
         <v>28.85</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1499,57 +2079,206 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>28.85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>28.44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11">
+        <f>D10-D11</f>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>28.3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12">
+        <f>D10-D12</f>
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="I12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>27.76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13">
+        <f>D10-D13</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>24.58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <f>D10-D14</f>
+        <v>4.2700000000000031</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="D15">
+        <v>21.57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <f>D13-D14</f>
+        <v>3.1800000000000033</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16">
+        <f>D14-D15</f>
+        <v>3.009999999999998</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <f>Anova!D12</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <f>4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <f>D18*SQRT(D19/D20)</f>
+        <v>1.8399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1563,16 +2292,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1585,105 +2316,377 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>28.85</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>28.44</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>28.3</v>
+        <v>24.58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>27.76</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>24.58</v>
+        <v>28.85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>21.57</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
+      <c r="C14">
+        <v>3.36</v>
+      </c>
+      <c r="D14" s="6">
+        <f>C14*SQRT($C$11/$C$12)</f>
+        <v>1.3440000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3.31</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15*SQRT($C$11/$C$12)</f>
+        <v>1.3240000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16">
+        <v>3.25</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16*SQRT($C$11/$C$12)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17">
+        <v>3.12</v>
+      </c>
+      <c r="D17" s="6">
+        <f>C17*SQRT($C$11/$C$12)</f>
+        <v>1.2480000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18">
+        <v>3.01</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18*SQRT($C$11/$C$12)</f>
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>28.85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>28.44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <f>C22-C27</f>
+        <v>7.2800000000000011</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>28.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>27.76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>24.58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26">
+        <f>C22-C26</f>
+        <v>4.2700000000000031</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>21.57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27">
+        <f>C23-C27</f>
+        <v>6.870000000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <f>C22-C25</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F32" si="0">C23-C26</f>
+        <v>3.860000000000003</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <f>C24-C26</f>
+        <v>3.7200000000000024</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36">
+        <f>C25-C27</f>
+        <v>6.1900000000000013</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <f>C26-C27</f>
+        <v>3.009999999999998</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1697,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,100 +2712,294 @@
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>21.57</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>27.76</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>24.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>28.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>28.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C7">
+        <v>-3</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10">
+        <f>SUMPRODUCT(B2:B7,C2:C7)</f>
+        <v>-9.8900000000000148</v>
+      </c>
+      <c r="F10">
+        <f>SUMPRODUCT(B2:B7,D2:D7)</f>
+        <v>-30.080000000000013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="7">
+        <f>SUMSQ(C2:C7)*Anova!D12/4</f>
+        <v>4.8</v>
+      </c>
+      <c r="F11">
+        <f>SUMSQ(D2:D7)*Anova!D12/4</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="C12" s="6">
+        <f>_xlfn.F.INV.RT(0.05,5,15)</f>
+        <v>2.9012945362361564</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.F.INV.RT(0.05,5,15)</f>
+        <v>2.9012945362361564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <f>SQRT((6-1)*C12*C11)</f>
+        <v>8.3445232859443657</v>
+      </c>
+      <c r="F13">
+        <f>SQRT((6-1)*F12*F11)</f>
+        <v>8.3445232859443657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="F14" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="F17" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="F18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="F19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="F20" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="F22" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B23" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/misc/exer_aula_4.xlsx
+++ b/misc/exer_aula_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Anova" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>Amplitude total mínima significativa</t>
   </si>
   <si>
-    <t xml:space="preserve">depende de número de média entre </t>
-  </si>
-  <si>
     <t>abrangidas e GL dos resíduos</t>
   </si>
   <si>
@@ -568,13 +565,16 @@
   <si>
     <t>à testemunha (sem adubo).</t>
   </si>
+  <si>
+    <t>depende de número de média</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -795,7 +795,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1697,31 +1697,31 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1752,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1952,26 +1952,26 @@
     </row>
     <row r="18" spans="1:7" ht="17.25">
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18">
@@ -1979,28 +1979,28 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2095,10 +2097,10 @@
         <v>28.85</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2109,20 +2111,20 @@
         <v>28.44</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <f>D10-D11</f>
         <v>0.41000000000000014</v>
       </c>
       <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
         <v>89</v>
-      </c>
-      <c r="J11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2133,20 +2135,20 @@
         <v>28.3</v>
       </c>
       <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
         <v>92</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
       </c>
       <c r="H12">
         <f>D10-D12</f>
         <v>0.55000000000000071</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2157,20 +2159,20 @@
         <v>27.76</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <f>D10-D13</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2181,20 +2183,20 @@
         <v>24.58</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <f>D10-D14</f>
         <v>4.2700000000000031</v>
       </c>
       <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
         <v>96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2205,35 +2207,35 @@
         <v>21.57</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15">
         <f>D13-D14</f>
         <v>3.1800000000000033</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="G16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16">
         <f>D14-D15</f>
         <v>3.009999999999998</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:4">
@@ -2243,7 +2245,7 @@
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>4.5999999999999996</v>
@@ -2251,7 +2253,7 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <f>Anova!D12</f>
@@ -2260,7 +2262,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <f>4</f>
@@ -2269,7 +2271,7 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <f>D18*SQRT(D19/D20)</f>
@@ -2278,7 +2280,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2294,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2369,7 +2371,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>0.64</v>
@@ -2377,7 +2379,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2385,21 +2387,21 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -2414,7 +2416,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -2465,7 +2467,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2481,10 +2483,10 @@
         <v>28.85</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -2495,20 +2497,20 @@
         <v>28.44</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <f>C22-C27</f>
         <v>7.2800000000000011</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -2519,7 +2521,7 @@
         <v>28.3</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -2530,10 +2532,10 @@
         <v>27.76</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -2544,20 +2546,20 @@
         <v>24.58</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26">
         <f>C22-C26</f>
         <v>4.2700000000000031</v>
       </c>
       <c r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" t="s">
         <v>96</v>
-      </c>
-      <c r="H26" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -2568,125 +2570,125 @@
         <v>21.57</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27">
         <f>C23-C27</f>
         <v>6.870000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="E30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <f>C22-C25</f>
         <v>1.0899999999999999</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F32" si="0">C23-C26</f>
         <v>3.860000000000003</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="E32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>6.73</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="5:8">
       <c r="E34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="5:8">
       <c r="E35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35">
         <f>C24-C26</f>
         <v>3.7200000000000024</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="5:8">
       <c r="E36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36">
         <f>C25-C27</f>
         <v>6.1900000000000013</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="5:8">
       <c r="E38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="5:8">
       <c r="E39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <f>C26-C27</f>
         <v>3.009999999999998</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2720,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2812,13 +2814,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2849,7 +2851,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="6">
         <f>_xlfn.F.INV.RT(0.05,5,15)</f>
@@ -2862,7 +2864,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <f>SQRT((6-1)*C12*C11)</f>
@@ -2888,12 +2890,12 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="F15" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2901,12 +2903,12 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="F16" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2914,12 +2916,12 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="F17" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2927,12 +2929,12 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="F18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2940,12 +2942,12 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="F19" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2953,12 +2955,12 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="F20" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2966,12 +2968,12 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="F21" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2979,12 +2981,12 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
       <c r="F22" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2992,7 +2994,7 @@
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1">
       <c r="B23" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
